--- a/kat.xlsx
+++ b/kat.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\TBR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE30AFD8-E48D-4AE5-BB3E-8A0FAEA3A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D66F60-BC97-4E7B-A28B-54FF882DFE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="98">
   <si>
     <t>Dzienniki ogólnopolskie</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>wydawca</t>
+  </si>
+  <si>
+    <t>Wysokie Obcasy Extra</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -473,13 +476,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -829,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,7 +859,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -870,7 +870,7 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -892,7 +892,7 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -903,7 +903,7 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -925,7 +925,7 @@
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -958,7 +958,7 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -980,7 +980,7 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       <c r="B35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       <c r="B40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       <c r="B45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="B46" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       <c r="B47" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="B50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       <c r="B51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       <c r="B53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       <c r="B54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="B57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       <c r="B58" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       <c r="B59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       <c r="B60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       <c r="B62" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       <c r="B63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       <c r="B64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       <c r="B65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       <c r="B66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       <c r="B67" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       <c r="B68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       <c r="B69" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="B70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       <c r="B71" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       <c r="B72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1640,19 +1640,19 @@
       <c r="B73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>81</v>
+      <c r="B74" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="48" x14ac:dyDescent="0.35">
@@ -1660,26 +1660,37 @@
         <v>80</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="5" t="s">
+    <row r="77" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="8" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C76">
-    <sortCondition ref="A2:A76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C77">
+    <sortCondition ref="A2:A77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1696,66 +1707,66 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1768,530 +1779,530 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>81</v>
       </c>
     </row>
